--- a/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
@@ -558,12 +558,12 @@
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
     </row>

--- a/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W20-05-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F6A18-FC49-498E-9C6D-CEAFB1FA0846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C95911-A3E5-4BA9-BBEC-B397010EA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,7 @@
         <v>3.7638632635454097E-2</v>
       </c>
       <c r="F21">
-        <v>5.6</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>1.10867789130417E-2</v>
       </c>
       <c r="F30">
-        <v>4.41</v>
+        <v>4.41E-2</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>4.7871355387817003E-3</v>
       </c>
       <c r="F39">
-        <v>4.41</v>
+        <v>4.41E-2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>1.6007810593582101E-2</v>
       </c>
       <c r="F48">
-        <v>5.6</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>1.19023807142381E-2</v>
       </c>
       <c r="F57">
-        <v>4.41</v>
+        <v>4.41E-2</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>1.9737865470544999E-2</v>
       </c>
       <c r="F66">
-        <v>5.6</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G66">
         <v>0</v>
